--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,666 +458,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GOLPERU HD 2022-11-02 15:00:00</t>
+          <t>ESPN HD 2023-01-18 14:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114058</v>
+        <v>8939</v>
       </c>
       <c r="C2" t="n">
-        <v>98846.48333333334</v>
+        <v>6146.883333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>411,524</t>
+          <t>19,715</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOLPERU HD 2022-11-06 15:00:00</t>
+          <t>ESPN HD 2023-01-19 15:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134440</v>
+        <v>14078</v>
       </c>
       <c r="C3" t="n">
-        <v>131817.9333333333</v>
+        <v>7541.466666666666</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>440,955</t>
+          <t>32,439</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPN 2 2022-10-31 12:30:00</t>
+          <t>ESPN HD 2023-01-20 14:30:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60983</v>
+        <v>7307</v>
       </c>
       <c r="C4" t="n">
-        <v>2249.333333333333</v>
+        <v>4537.966666666666</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6,985</t>
+          <t>16,557</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESPN HD 2022-11-01 12:45:00</t>
+          <t>ESPN HD 2023-01-19 12:00:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23173</v>
+        <v>51327</v>
       </c>
       <c r="C5" t="n">
-        <v>17751.3</v>
+        <v>45331.15</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53,857</t>
+          <t>162,697</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESPN HD 2022-11-01 15:00:00</t>
+          <t>ESPN HD 2023-01-21 07:30:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29909</v>
+        <v>10989</v>
       </c>
       <c r="C6" t="n">
-        <v>15612.16666666667</v>
+        <v>101496.7333333333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78,556</t>
+          <t>25,904</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESPN 2 2022-11-01 12:45:00</t>
+          <t>ESPN 2 2023-01-21 15:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15626</v>
+        <v>3236</v>
       </c>
       <c r="C7" t="n">
-        <v>6449.366666666667</v>
+        <v>1739.816666666667</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32,241</t>
+          <t>5,487</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESPN 2 2022-11-01 15:00:00</t>
+          <t>ESPN 2 2023-01-22 08:30:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22023</v>
+        <v>4900</v>
       </c>
       <c r="C8" t="n">
-        <v>8484.216666666667</v>
+        <v>481.75</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48,798</t>
+          <t>8,545</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESPN 4 2022-11-01 15:00:00</t>
+          <t>ESPN HD 2023-01-22 11:30:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10071</v>
+        <v>17323</v>
       </c>
       <c r="C9" t="n">
-        <v>2460</v>
+        <v>13061.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20,884</t>
+          <t>44,058</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FOX SPORTS 3 HD 2022-11-01 15:00:00</t>
+          <t>ESPN 3 2023-01-22 12:00:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6807</v>
+        <v>3271</v>
       </c>
       <c r="C10" t="n">
-        <v>843.5333333333333</v>
+        <v>525.4666666666667</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14,150</t>
+          <t>5,679</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ESPN HD 2022-11-02 12:45:00</t>
+          <t>ESPN 2 2023-01-22 12:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34804</v>
+        <v>13444</v>
       </c>
       <c r="C11" t="n">
-        <v>23929.86666666666</v>
+        <v>8368.383333333333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84,462</t>
+          <t>26,834</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESPN HD 2022-11-02 15:00:00</t>
+          <t>ESPN HD 2023-01-22 14:45:00</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166743</v>
+        <v>7784</v>
       </c>
       <c r="C12" t="n">
-        <v>208468.7</v>
+        <v>4484.066666666667</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1,017,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-02 12:45:00</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12068</v>
-      </c>
-      <c r="C13" t="n">
-        <v>153518.9833333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>24,263</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-02 15:00:00</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9781</v>
-      </c>
-      <c r="C14" t="n">
-        <v>947.6333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>19,300</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ESPN 4 2022-11-02 15:00:00</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10734</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2868.133333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24,781</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ESPN EXTRA HD 2022-11-02 15:00:00</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4490</v>
-      </c>
-      <c r="C16" t="n">
-        <v>302.8333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9,287</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FOX SPORTS 2 HD 2022-11-02 15:00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5174</v>
-      </c>
-      <c r="C17" t="n">
-        <v>510.3333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10,564</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>FOX SPORTS 3 HD 2022-11-02 15:00:00</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5912</v>
-      </c>
-      <c r="C18" t="n">
-        <v>989.3166666666667</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12,816</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-03 12:45:00</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>19115</v>
-      </c>
-      <c r="C19" t="n">
-        <v>15710.7</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>43,258</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-03 15:00:00</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10036</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4968.366666666667</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20,296</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-03 12:45:00</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10605</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4180.4</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>386,325</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-03 15:00:00</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4263</v>
-      </c>
-      <c r="C22" t="n">
-        <v>689.9833333333333</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6,974</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ESPN EXTRA HD 2022-11-03 12:45:00</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2104</v>
-      </c>
-      <c r="C23" t="n">
-        <v>324.9666666666666</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3,459</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ESPN EXTRA HD 2022-11-03 15:00:00</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>5130</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2972.3</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>11,884</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>FOX SPORTS 2 HD 2022-11-03 15:00:00</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C25" t="n">
-        <v>108.0333333333333</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1,783</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-05 09:30:00</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>5173</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1397.95</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8,835</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-05 10:00:00</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>17085</v>
-      </c>
-      <c r="C27" t="n">
-        <v>15527.36666666667</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>41,365</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-05 12:00:00</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>11349</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5725.5</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>21,773</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ESPN 4 2022-11-05 12:30:00</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3782</v>
-      </c>
-      <c r="C29" t="n">
-        <v>946.6166666666667</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6,181</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-05 15:00:00</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>23083</v>
-      </c>
-      <c r="C30" t="n">
-        <v>18823.11666666666</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>52,881</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ESPN EXTRA HD 2022-11-05 15:05:00</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2388</v>
-      </c>
-      <c r="C31" t="n">
-        <v>484.75</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3,716</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-06 07:00:00</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>9394</v>
-      </c>
-      <c r="C32" t="n">
-        <v>98260.23333333334</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>18,199</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-06 07:00:00</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>16001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>11332.3</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>35,206</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ESPN EXTRA HD 2022-11-06 08:00:00</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>9428</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4941.366666666667</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>16,647</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-06 11:30:00</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>22061</v>
-      </c>
-      <c r="C35" t="n">
-        <v>16242.11666666667</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>45,533</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-06 12:00:00</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>9900</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3841.2</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>16,862</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ESPN 2 2022-11-06 14:45:00</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>11276</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2770.283333333333</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20,473</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ESPN HD 2022-11-06 15:00:00</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>19258</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7954.633333333333</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>37,644</t>
+          <t>15,527</t>
         </is>
       </c>
     </row>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,198 +458,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-18 14:00:00</t>
+          <t>ESPN EXTRA HD 2023-02-01 14:45:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8939</v>
+        <v>2696</v>
       </c>
       <c r="C2" t="n">
-        <v>6146.883333333333</v>
+        <v>592.95</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19,715</t>
+          <t>4,891</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-19 15:00:00</t>
+          <t>ESPN HD 2023-02-01 15:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14078</v>
+        <v>10354</v>
       </c>
       <c r="C3" t="n">
-        <v>7541.466666666666</v>
+        <v>6640.666666666667</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32,439</t>
+          <t>27,671</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-20 14:30:00</t>
+          <t>ESPN 2 2023-02-01 15:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7307</v>
+        <v>6542</v>
       </c>
       <c r="C4" t="n">
-        <v>4537.966666666666</v>
+        <v>2469.166666666667</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16,557</t>
+          <t>14,037</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-19 12:00:00</t>
+          <t>ESPN HD 2023-02-03 15:00:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51327</v>
+        <v>9334</v>
       </c>
       <c r="C5" t="n">
-        <v>45331.15</v>
+        <v>6446.216666666666</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>162,697</t>
+          <t>23,984</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-21 07:30:00</t>
+          <t>ESPN HD 2023-02-04 07:30:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10989</v>
+        <v>7468</v>
       </c>
       <c r="C6" t="n">
-        <v>101496.7333333333</v>
+        <v>5652.716666666666</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25,904</t>
+          <t>16,968</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-01-21 15:00:00</t>
+          <t>ESPN HD 2023-02-04 11:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3236</v>
+        <v>8949</v>
       </c>
       <c r="C7" t="n">
-        <v>1739.816666666667</v>
+        <v>5580.033333333334</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5,487</t>
+          <t>19,613</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-01-22 08:30:00</t>
+          <t>ESPN2 2023-02-04 12:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4900</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>481.75</v>
+        <v>61.91666666666666</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8,545</t>
+          <t>357</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-22 11:30:00</t>
+          <t>ESPN HD 2023-02-04 15:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17323</v>
+        <v>6398</v>
       </c>
       <c r="C9" t="n">
-        <v>13061.1</v>
+        <v>2284.15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44,058</t>
+          <t>11,486</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESPN 3 2023-01-22 12:00:00</t>
+          <t>ESPN HD 2023-02-04 17:15:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3271</v>
+        <v>4720</v>
       </c>
       <c r="C10" t="n">
-        <v>525.4666666666667</v>
+        <v>70066.88333333333</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,679</t>
+          <t>8,683</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-01-22 12:30:00</t>
+          <t>ESPN HD 2023-02-05 09:00:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13444</v>
+        <v>6710</v>
       </c>
       <c r="C11" t="n">
-        <v>8368.383333333333</v>
+        <v>3999.683333333333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26,834</t>
+          <t>12,539</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-01-22 14:45:00</t>
+          <t>ESPN HD 2023-02-05 11:30:00</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7784</v>
+        <v>12816</v>
       </c>
       <c r="C12" t="n">
-        <v>4484.066666666667</v>
+        <v>11115.16666666667</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15,527</t>
+          <t>29,527</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-02-05 14:45:00</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9402</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3844.116666666667</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19,583</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-02-05 17:15:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6185</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3634.45</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11,460</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-02-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10233</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7477.183333333333</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23,146</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-02-05 11:30:00</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C16" t="n">
+        <v>445.0333333333334</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,433</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GOLTV 2023-02-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,288 +458,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESPN EXTRA HD 2023-02-01 14:45:00</t>
+          <t>GOLPERU HD 2023-02-18 15:30:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2696</v>
+        <v>16988</v>
       </c>
       <c r="C2" t="n">
-        <v>592.95</v>
+        <v>12430.58333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4,891</t>
+          <t>36,697</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-02-01 15:00:00</t>
+          <t>GOLPERU HD 2023-02-19 15:30:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10354</v>
+        <v>99279</v>
       </c>
       <c r="C3" t="n">
-        <v>6640.666666666667</v>
+        <v>106129.1833333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27,671</t>
+          <t>420,921</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-02-01 15:00:00</t>
+          <t>GOLPERU HD 2023-02-20 15:30:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6542</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2469.166666666667</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14,037</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-03 15:00:00</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6446.216666666666</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23,984</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7468</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5652.716666666666</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16,968</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-04 11:00:00</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8949</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5580.033333333334</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19,613</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ESPN2 2023-02-04 12:00:00</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>58</v>
-      </c>
-      <c r="C8" t="n">
-        <v>61.91666666666666</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>357</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-04 15:00:00</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6398</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2284.15</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11,486</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-04 17:15:00</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4720</v>
-      </c>
-      <c r="C10" t="n">
-        <v>70066.88333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8,683</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-05 09:00:00</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6710</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3999.683333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12,539</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-05 11:30:00</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12816</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11115.16666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29,527</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-05 14:45:00</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9402</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3844.116666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>19,583</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-02-05 17:15:00</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6185</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3634.45</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11,460</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-02-05 15:00:00</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10233</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7477.183333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23,146</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ESPN 4 2023-02-05 11:30:00</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2164</v>
-      </c>
-      <c r="C16" t="n">
-        <v>445.0333333333334</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,433</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GOLTV 2023-02-05 16:00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>31</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>150</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,54 +458,792 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GOLPERU HD 2023-02-18 15:30:00</t>
+          <t>ESPN HD 2023-04-17 14:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16988</v>
+        <v>6153</v>
       </c>
       <c r="C2" t="n">
-        <v>12430.58333333333</v>
+        <v>3763.016666666667</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36,697</t>
+          <t>12,675</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOLPERU HD 2023-02-19 15:30:00</t>
+          <t>ESPN 2  2023-04-17 13:45:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99279</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>106129.1833333333</v>
+        <v>79292.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>420,921</t>
+          <t>258,383</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GOLPERU HD 2023-02-20 15:30:00</t>
+          <t>ESPN HD 2023-04-18 14:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>47893</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37448.78333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>172,361</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-18 19:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13160</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1289.15</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25,229</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-18 21:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10387</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1821.716666666667</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19,350</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-18 14:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20940</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9227.6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56,167</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-18 17:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4125.783333333334</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13,179</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-18 19:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14980</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10468.11666666667</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33,227</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-18 21:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81671</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2615.6</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15,928</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-04-18 17:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5334</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2710.533333333333</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11,481</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-04-18 19:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4143</v>
+      </c>
+      <c r="C12" t="n">
+        <v>251.0166666666667</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6,577</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-19 14:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48560</v>
+      </c>
+      <c r="C13" t="n">
+        <v>44215.31666666667</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>174,119</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-19 17:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24396</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20502.55</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49,665</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-19 19:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>66700</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53129</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>226,794</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-19 14:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13261</v>
+      </c>
+      <c r="C16" t="n">
+        <v>116931.5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>511,365</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-19 19:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10064</v>
+      </c>
+      <c r="C17" t="n">
+        <v>532.6833333333333</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16,398</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-19 21:00:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5033</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1487.783333333333</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8,817</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ESPN 3 2023-04-19 21:00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3234</v>
+      </c>
+      <c r="C19" t="n">
+        <v>583.2333333333333</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5,919</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-04-19 20:00:00</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5048</v>
+      </c>
+      <c r="C20" t="n">
+        <v>604.9166666666666</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8,431</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-20 14:00:00</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19246</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13719.06666666667</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>51,813</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-20 17:00:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17943</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7959.3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36,460</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-20 19:00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>53957</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44833.98333333333</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>153,490</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-20 21:00:00</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>67084</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57018.81666666667</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>239,881</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-20 14:00:00</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7099</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2361.616666666667</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15,199</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-20 17:00:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>56595</v>
+      </c>
+      <c r="C26" t="n">
+        <v>84099.75</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>428,467</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-20 19:00:00</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>15780</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2845.133333333333</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>31,599</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-20 21:00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13528</v>
+      </c>
+      <c r="C28" t="n">
+        <v>220.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22,606</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-04-20 19:00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15182</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2412.116666666667</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32,223</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-21 14:00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9501</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7686.95</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26,102</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-22 06:30:00</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3385</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1531.116666666667</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5,973</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-22 10:45:00</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8605</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6127.266666666666</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18,415</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-22 14:00:00</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13297</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9673.683333333332</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27,362</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-22 09:00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5731</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4070.883333333333</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11,236</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-22 11:00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2640</v>
+      </c>
+      <c r="C35" t="n">
+        <v>625.8166666666667</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4,421</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-04-22 08:30:00</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C36" t="n">
+        <v>243.4333333333333</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1,730</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ESPN 4 2023-04-22 11:30:00</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2318</v>
+      </c>
+      <c r="C37" t="n">
+        <v>689.7166666666667</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3,875</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ESPN EXTRA HD 2023-04-22 11:30:00</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1671</v>
+      </c>
+      <c r="C38" t="n">
+        <v>565.95</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2,711</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-23 10:30:00</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10186</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7850.166666666667</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20,899</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-23 13:45:00</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9722</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3006.783333333333</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18,679</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ESPN HD 2023-04-23 18:30:00</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8299</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2783.4</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14,517</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-23 11:00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3232</v>
+      </c>
+      <c r="C42" t="n">
+        <v>822.75</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5,221</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ESPN 2 2023-04-23 13:30:00</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5733</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2829.816666666667</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9,858</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ESPN 3 2023-04-23 13:45:00</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2210</v>
+      </c>
+      <c r="C44" t="n">
+        <v>312.9166666666667</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3,724</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ESPN EXTRA HD 2023-04-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>44983</v>
+      </c>
+      <c r="C45" t="n">
+        <v>961.7666666666667</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5,448</t>
         </is>
       </c>
     </row>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,792 +458,720 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-17 14:00:00</t>
+          <t>ESPN HD 2023-05-01 14:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6153</v>
+        <v>3763</v>
       </c>
       <c r="C2" t="n">
-        <v>3763.016666666667</v>
+        <v>1557.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12,675</t>
+          <t>7,830</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPN 2  2023-04-17 13:45:00</t>
+          <t>ESPN EXTRA HD 2023-05-01 18:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1212</v>
       </c>
       <c r="C3" t="n">
-        <v>79292.8</v>
+        <v>354.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>258,383</t>
+          <t>1,829</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-18 14:00:00</t>
+          <t>ESPN HD 2023-05-02 14:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47893</v>
+        <v>15483</v>
       </c>
       <c r="C4" t="n">
-        <v>37448.78333333333</v>
+        <v>9821.799999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>172,361</t>
+          <t>42,178</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-18 19:00:00</t>
+          <t>ESPN HD 2023-05-02 17:00:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13160</v>
+        <v>9291</v>
       </c>
       <c r="C5" t="n">
-        <v>1289.15</v>
+        <v>3616.233333333333</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25,229</t>
+          <t>18,826</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-18 21:00:00</t>
+          <t>ESPN HD 2023-05-02 19:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10387</v>
+        <v>28995</v>
       </c>
       <c r="C6" t="n">
-        <v>1821.716666666667</v>
+        <v>21110.81666666667</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19,350</t>
+          <t>62,436</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-18 14:00:00</t>
+          <t>ESPN HD 2023-05-02 21:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20940</v>
+        <v>53143</v>
       </c>
       <c r="C7" t="n">
-        <v>9227.6</v>
+        <v>48078.93333333333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56,167</t>
+          <t>151,842</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-18 17:00:00</t>
+          <t>ESPN 2 2023-05-02 13:45:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6654</v>
+        <v>6073</v>
       </c>
       <c r="C8" t="n">
-        <v>4125.783333333334</v>
+        <v>1411.216666666667</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13,179</t>
+          <t>11,341</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-18 19:00:00</t>
+          <t>ESPN 2 2023-05-02 19:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14980</v>
+        <v>9275</v>
       </c>
       <c r="C9" t="n">
-        <v>10468.11666666667</v>
+        <v>1384.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33,227</t>
+          <t>17,056</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-18 21:00:00</t>
+          <t>ESPN 3 2023-05-02 12:30:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81671</v>
+        <v>4859</v>
       </c>
       <c r="C10" t="n">
-        <v>2615.6</v>
+        <v>320.1166666666667</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15,928</t>
+          <t>8,789</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-04-18 17:00:00</t>
+          <t>ESPN 4 2023-05-02 17:00:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5334</v>
+        <v>5519</v>
       </c>
       <c r="C11" t="n">
-        <v>2710.533333333333</v>
+        <v>2660.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11,481</t>
+          <t>9,706</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-04-18 19:00:00</t>
+          <t>ESPN 4 2023-05-02 19:00:00</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4143</v>
+        <v>18145</v>
       </c>
       <c r="C12" t="n">
-        <v>251.0166666666667</v>
+        <v>6958.516666666666</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6,577</t>
+          <t>41,916</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-19 14:00:00</t>
+          <t>ESPN HD 2023-05-03 14:00:00</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48560</v>
+        <v>16296</v>
       </c>
       <c r="C13" t="n">
-        <v>44215.31666666667</v>
+        <v>11471.25</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>174,119</t>
+          <t>42,401</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-19 17:00:00</t>
+          <t>ESPN HD 2023-05-03 17:00:00</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24396</v>
+        <v>18089</v>
       </c>
       <c r="C14" t="n">
-        <v>20502.55</v>
+        <v>14559.15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49,665</t>
+          <t>38,401</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-19 19:00:00</t>
+          <t>ESPN HD 2023-05-03 19:30:00</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66700</v>
+        <v>71928</v>
       </c>
       <c r="C15" t="n">
-        <v>53129</v>
+        <v>62329.81666666667</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>226,794</t>
+          <t>254,366</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-19 14:00:00</t>
+          <t>ESPN 2 2023-05-03 11:00:00</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13261</v>
+        <v>2061</v>
       </c>
       <c r="C16" t="n">
-        <v>116931.5</v>
+        <v>1353.466666666667</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>511,365</t>
+          <t>4,105</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-19 19:00:00</t>
+          <t>ESPN 2 2023-05-03 14:00:00</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10064</v>
+        <v>3057</v>
       </c>
       <c r="C17" t="n">
-        <v>532.6833333333333</v>
+        <v>318.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16,398</t>
+          <t>5,387</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-19 21:00:00</t>
+          <t>ESPN 2 2023-05-03 17:00:00</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5033</v>
+        <v>6675</v>
       </c>
       <c r="C18" t="n">
-        <v>1487.783333333333</v>
+        <v>1930.95</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8,817</t>
+          <t>13,207</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ESPN 3 2023-04-19 21:00:00</t>
+          <t>ESPN 2 2023-05-03 19:00:00</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3234</v>
+        <v>9093</v>
       </c>
       <c r="C19" t="n">
-        <v>583.2333333333333</v>
+        <v>305.3666666666667</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5,919</t>
+          <t>14,962</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-04-19 20:00:00</t>
+          <t>ESPN 2 2023-05-03 21:00:00</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5048</v>
+        <v>5803</v>
       </c>
       <c r="C20" t="n">
-        <v>604.9166666666666</v>
+        <v>764.1833333333333</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8,431</t>
+          <t>8,252</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-20 14:00:00</t>
+          <t>ESPN 3 2023-05-03 14:00:00</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19246</v>
+        <v>4494</v>
       </c>
       <c r="C21" t="n">
-        <v>13719.06666666667</v>
+        <v>1603.95</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51,813</t>
+          <t>9,715</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-20 17:00:00</t>
+          <t>ESPN 4 2023-05-03 19:00:00</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17943</v>
+        <v>15691</v>
       </c>
       <c r="C22" t="n">
-        <v>7959.3</v>
+        <v>4491.783333333334</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>36,460</t>
+          <t>36,142</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-20 19:00:00</t>
+          <t>ESPN HD 2023-05-04 14:00:00</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53957</v>
+        <v>9585</v>
       </c>
       <c r="C23" t="n">
-        <v>44833.98333333333</v>
+        <v>3104.816666666667</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>153,490</t>
+          <t>23,093</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-20 21:00:00</t>
+          <t>ESPN HD 2023-05-04 17:00:00</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67084</v>
+        <v>23426</v>
       </c>
       <c r="C24" t="n">
-        <v>57018.81666666667</v>
+        <v>12035.63333333333</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>239,881</t>
+          <t>62,223</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-20 14:00:00</t>
+          <t>ESPN HD 2023-05-04 19:00:00</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7099</v>
+        <v>24299</v>
       </c>
       <c r="C25" t="n">
-        <v>2361.616666666667</v>
+        <v>3031.416666666667</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15,199</t>
+          <t>53,426</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-20 17:00:00</t>
+          <t>ESPN HD 2023-05-04 21:00:00</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56595</v>
+        <v>27554</v>
       </c>
       <c r="C26" t="n">
-        <v>84099.75</v>
+        <v>2387.666666666667</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>428,467</t>
+          <t>58,478</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-20 19:00:00</t>
+          <t>ESPN 2 2023-05-04 17:00:00</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15780</v>
+        <v>12604</v>
       </c>
       <c r="C27" t="n">
-        <v>2845.133333333333</v>
+        <v>7561.266666666666</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31,599</t>
+          <t>32,399</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-20 21:00:00</t>
+          <t>ESPN 2 2023-05-04 19:00:00</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13528</v>
+        <v>17344</v>
       </c>
       <c r="C28" t="n">
-        <v>220.05</v>
+        <v>6166.7</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22,606</t>
+          <t>36,082</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-04-20 19:00:00</t>
+          <t>ESPN 3 2023-05-04 17:00:00</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15182</v>
+        <v>3875</v>
       </c>
       <c r="C29" t="n">
-        <v>2412.116666666667</v>
+        <v>615.2166666666667</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>32,223</t>
+          <t>8,294</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-21 14:00:00</t>
+          <t>ESPN 3 2023-05-04 19:00:00</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9501</v>
+        <v>10372</v>
       </c>
       <c r="C30" t="n">
-        <v>7686.95</v>
+        <v>1493.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26,102</t>
+          <t>21,684</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-22 06:30:00</t>
+          <t>ESPN 4 2023-05-04 12:30:00</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3385</v>
+        <v>1077</v>
       </c>
       <c r="C31" t="n">
-        <v>1531.116666666667</v>
+        <v>71.76666666666667</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5,973</t>
+          <t>1,584</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-22 10:45:00</t>
+          <t>ESPN 4 2023-05-04 19:00:00</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8605</v>
+        <v>7235</v>
       </c>
       <c r="C32" t="n">
-        <v>6127.266666666666</v>
+        <v>511.2666666666667</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18,415</t>
+          <t>13,298</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-22 14:00:00</t>
+          <t>ESPN HD 2023-05-06 09:00:00</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13297</v>
+        <v>8948</v>
       </c>
       <c r="C33" t="n">
-        <v>9673.683333333332</v>
+        <v>6701.516666666666</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27,362</t>
+          <t>20,636</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-22 09:00:00</t>
+          <t>ESPN HD 2023-05-06 11:30:00</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5731</v>
+        <v>8496</v>
       </c>
       <c r="C34" t="n">
-        <v>4070.883333333333</v>
+        <v>5385.3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11,236</t>
+          <t>17,736</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-04-22 11:00:00</t>
+          <t>ESPN 2 2023-05-06 09:00:00</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2640</v>
+        <v>2726</v>
       </c>
       <c r="C35" t="n">
-        <v>625.8166666666667</v>
+        <v>839.4166666666666</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>4,906</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-04-22 08:30:00</t>
+          <t>ESPN 3 2023-05-06 11:00:00</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1165</v>
+        <v>3142</v>
       </c>
       <c r="C36" t="n">
-        <v>243.4333333333333</v>
+        <v>1697.866666666667</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1,730</t>
+          <t>5,945</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-04-22 11:30:00</t>
+          <t>ESPN HD 2023-05-07 05:30:00</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2318</v>
+        <v>1922</v>
       </c>
       <c r="C37" t="n">
-        <v>689.7166666666667</v>
+        <v>802.7166666666667</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3,875</t>
+          <t>3,203</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ESPN EXTRA HD 2023-04-22 11:30:00</t>
+          <t>ESPN HD 2023-05-07 07:30:00</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1671</v>
+        <v>4139</v>
       </c>
       <c r="C38" t="n">
-        <v>565.95</v>
+        <v>676.75</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2,711</t>
+          <t>6,870</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-23 10:30:00</t>
+          <t>ESPN HD 2023-05-07 10:30:00</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10186</v>
+        <v>8766</v>
       </c>
       <c r="C39" t="n">
-        <v>7850.166666666667</v>
+        <v>2665</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20,899</t>
+          <t>16,708</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-23 13:45:00</t>
+          <t>ESPN HD 2023-05-07 15:30:00</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9722</v>
+        <v>24825</v>
       </c>
       <c r="C40" t="n">
-        <v>3006.783333333333</v>
+        <v>21604.55</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18,679</t>
+          <t>59,118</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-04-23 18:30:00</t>
+          <t>ESPN 2 2023-05-07 11:00:00</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8299</v>
+        <v>5625</v>
       </c>
       <c r="C41" t="n">
-        <v>2783.4</v>
+        <v>2739.383333333333</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14,517</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-04-23 11:00:00</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>3232</v>
-      </c>
-      <c r="C42" t="n">
-        <v>822.75</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5,221</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-04-23 13:30:00</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5733</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2829.816666666667</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>9,858</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ESPN 3 2023-04-23 13:45:00</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2210</v>
-      </c>
-      <c r="C44" t="n">
-        <v>312.9166666666667</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3,724</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ESPN EXTRA HD 2023-04-23 08:00:00</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44983</v>
-      </c>
-      <c r="C45" t="n">
-        <v>961.7666666666667</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>5,448</t>
+          <t>9,791</t>
         </is>
       </c>
     </row>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,720 +458,306 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-01 14:00:00</t>
+          <t>ESPN HD 2023-05-15 14:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3763</v>
+        <v>8705</v>
       </c>
       <c r="C2" t="n">
-        <v>1557.4</v>
+        <v>5073.466666666666</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7,830</t>
+          <t>20,138</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPN EXTRA HD 2023-05-01 18:00:00</t>
+          <t>ESPN HD 2023-05-16 14:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1212</v>
+        <v>38345</v>
       </c>
       <c r="C3" t="n">
-        <v>354.95</v>
+        <v>30946.51666666667</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1,829</t>
+          <t>119,966</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-02 14:00:00</t>
+          <t>ESPN HD 2023-05-17 14:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15483</v>
+        <v>67290</v>
       </c>
       <c r="C4" t="n">
-        <v>9821.799999999999</v>
+        <v>53362.68333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42,178</t>
+          <t>356,340</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-02 17:00:00</t>
+          <t>ESPN HD 2023-05-18 14:00:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9291</v>
+        <v>15229</v>
       </c>
       <c r="C5" t="n">
-        <v>3616.233333333333</v>
+        <v>80776.64999999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18,826</t>
+          <t>44,311</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-02 19:00:00</t>
+          <t>ESPN 3 2023-05-18 14:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28995</v>
+        <v>3036</v>
       </c>
       <c r="C6" t="n">
-        <v>21110.81666666667</v>
+        <v>269.85</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>62,436</t>
+          <t>6,053</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-02 21:00:00</t>
+          <t>ESPN HD 2023-05-19 19:30:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53143</v>
+        <v>17689</v>
       </c>
       <c r="C7" t="n">
-        <v>48078.93333333333</v>
+        <v>2146.7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>151,842</t>
+          <t>33,612</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-05-02 13:45:00</t>
+          <t>ESPN HD 2023-05-20 11:20:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6073</v>
+        <v>7299</v>
       </c>
       <c r="C8" t="n">
-        <v>1411.216666666667</v>
+        <v>4908.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11,341</t>
+          <t>16,244</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-05-02 19:00:00</t>
+          <t>ESPN 4 2023-05-20 11:30:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9275</v>
+        <v>2214</v>
       </c>
       <c r="C9" t="n">
-        <v>1384.4</v>
+        <v>889.9833333333333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17,056</t>
+          <t>4,625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESPN 3 2023-05-02 12:30:00</t>
+          <t>ESPN HD 2023-05-20 13:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859</v>
+        <v>9518</v>
       </c>
       <c r="C10" t="n">
-        <v>320.1166666666667</v>
+        <v>2254.266666666667</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8,789</t>
+          <t>23,745</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-05-02 17:00:00</t>
+          <t>ESPN 3 2023-05-21 09:00:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5519</v>
+        <v>2708</v>
       </c>
       <c r="C11" t="n">
-        <v>2660.6</v>
+        <v>1027.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9,706</t>
+          <t>4,906</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-05-02 19:00:00</t>
+          <t>ESPN HD 2023-05-21 09:50:00</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18145</v>
+        <v>14919</v>
       </c>
       <c r="C12" t="n">
-        <v>6958.516666666666</v>
+        <v>12312.31666666667</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>41,916</t>
+          <t>33,791</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-03 14:00:00</t>
+          <t>ESPN EXTRA HD 2023-05-21 10:50:00</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16296</v>
+        <v>1817</v>
       </c>
       <c r="C13" t="n">
-        <v>11471.25</v>
+        <v>609.1166666666667</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42,401</t>
+          <t>3,210</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-03 17:00:00</t>
+          <t>ESPN 3 2023-05-21 11:15:00</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18089</v>
+        <v>5861</v>
       </c>
       <c r="C14" t="n">
-        <v>14559.15</v>
+        <v>58344.53333333333</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>38,401</t>
+          <t>10,707</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-03 19:30:00</t>
+          <t>ESPN HD 2023-05-21 18:20:00</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71928</v>
+        <v>6159</v>
       </c>
       <c r="C15" t="n">
-        <v>62329.81666666667</v>
+        <v>2483.733333333333</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>254,366</t>
+          <t>10,841</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-05-03 11:00:00</t>
+          <t>GOLPERU HD 2023-05-17 19:30:00</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2061</v>
+        <v>8116</v>
       </c>
       <c r="C16" t="n">
-        <v>1353.466666666667</v>
+        <v>2882.933333333333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4,105</t>
+          <t>14,249</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-05-03 14:00:00</t>
+          <t>GOLPERU HD 2023-05-19 20:30:00</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3057</v>
+        <v>56678</v>
       </c>
       <c r="C17" t="n">
-        <v>318.6</v>
+        <v>174358.5333333333</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5,387</t>
+          <t>180,032</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ESPN 2 2023-05-03 17:00:00</t>
+          <t>GOLPERU HD 2023-05-21 15:00:00</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6675</v>
+        <v>12076</v>
       </c>
       <c r="C18" t="n">
-        <v>1930.95</v>
+        <v>7989.283333333334</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13,207</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-05-03 19:00:00</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9093</v>
-      </c>
-      <c r="C19" t="n">
-        <v>305.3666666666667</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14,962</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-05-03 21:00:00</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5803</v>
-      </c>
-      <c r="C20" t="n">
-        <v>764.1833333333333</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8,252</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ESPN 3 2023-05-03 14:00:00</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4494</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1603.95</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9,715</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ESPN 4 2023-05-03 19:00:00</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15691</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4491.783333333334</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>36,142</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-04 14:00:00</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3104.816666666667</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>23,093</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-04 17:00:00</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23426</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12035.63333333333</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>62,223</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-04 19:00:00</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24299</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3031.416666666667</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>53,426</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-04 21:00:00</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>27554</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2387.666666666667</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>58,478</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-05-04 17:00:00</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>12604</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7561.266666666666</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>32,399</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-05-04 19:00:00</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>17344</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6166.7</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>36,082</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ESPN 3 2023-05-04 17:00:00</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3875</v>
-      </c>
-      <c r="C29" t="n">
-        <v>615.2166666666667</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8,294</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ESPN 3 2023-05-04 19:00:00</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>10372</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1493.2</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>21,684</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ESPN 4 2023-05-04 12:30:00</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1077</v>
-      </c>
-      <c r="C31" t="n">
-        <v>71.76666666666667</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1,584</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ESPN 4 2023-05-04 19:00:00</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>7235</v>
-      </c>
-      <c r="C32" t="n">
-        <v>511.2666666666667</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>13,298</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-06 09:00:00</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>8948</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6701.516666666666</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20,636</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-06 11:30:00</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>8496</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5385.3</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>17,736</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-05-06 09:00:00</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2726</v>
-      </c>
-      <c r="C35" t="n">
-        <v>839.4166666666666</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4,906</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ESPN 3 2023-05-06 11:00:00</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3142</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1697.866666666667</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5,945</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-07 05:30:00</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1922</v>
-      </c>
-      <c r="C37" t="n">
-        <v>802.7166666666667</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3,203</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-07 07:30:00</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C38" t="n">
-        <v>676.75</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6,870</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-07 10:30:00</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>8766</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>16,708</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-07 15:30:00</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>24825</v>
-      </c>
-      <c r="C40" t="n">
-        <v>21604.55</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>59,118</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ESPN 2 2023-05-07 11:00:00</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5625</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2739.383333333333</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>9,791</t>
+          <t>22,638</t>
         </is>
       </c>
     </row>

--- a/resultados_partidos1.xlsx
+++ b/resultados_partidos1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,306 +458,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-15 14:00:00</t>
+          <t>ESPN HD 2023-05-29 19:30:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8705</v>
+        <v>7520</v>
       </c>
       <c r="C2" t="n">
-        <v>5073.466666666666</v>
+        <v>2831.083333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20,138</t>
+          <t>14,295</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-16 14:00:00</t>
+          <t>ESPN HD 2023-05-31 13:45:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38345</v>
+        <v>25092</v>
       </c>
       <c r="C3" t="n">
-        <v>30946.51666666667</v>
+        <v>31618.08333333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>119,966</t>
+          <t>68,352</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-17 14:00:00</t>
+          <t>ESPN HD 2023-06-01 19:30:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67290</v>
+        <v>9073</v>
       </c>
       <c r="C4" t="n">
-        <v>53362.68333333333</v>
+        <v>2953.283333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>356,340</t>
+          <t>17,866</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-18 14:00:00</t>
+          <t>ESPN 4 2023-06-03 14:15:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15229</v>
+        <v>705</v>
       </c>
       <c r="C5" t="n">
-        <v>80776.64999999999</v>
+        <v>77.03333333333333</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44,311</t>
+          <t>1,119</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESPN 3 2023-05-18 14:00:00</t>
+          <t>ESPN HD 2023-06-03 08:50:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3036</v>
+        <v>15386</v>
       </c>
       <c r="C6" t="n">
-        <v>269.85</v>
+        <v>12598.76666666667</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6,053</t>
+          <t>48,334</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-19 19:30:00</t>
+          <t>ESPN 2 2023-06-03 12:50:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17689</v>
+        <v>1685</v>
       </c>
       <c r="C7" t="n">
-        <v>2146.7</v>
+        <v>392.8666666666667</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33,612</t>
+          <t>2,791</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-20 11:20:00</t>
+          <t>ESPN HD 2023-06-03 13:50:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7299</v>
+        <v>8780</v>
       </c>
       <c r="C8" t="n">
-        <v>4908.1</v>
+        <v>5919.85</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16,244</t>
+          <t>18,177</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESPN 4 2023-05-20 11:30:00</t>
+          <t>ESPN 3 2023-06-04 11:20:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2214</v>
+        <v>2603</v>
       </c>
       <c r="C9" t="n">
-        <v>889.9833333333333</v>
+        <v>585.2833333333333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4,625</t>
+          <t>4,748</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-20 13:50:00</t>
+          <t>ESPN 2 2023-06-04 11:20:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9518</v>
+        <v>2343</v>
       </c>
       <c r="C10" t="n">
-        <v>2254.266666666667</v>
+        <v>241.6166666666667</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23,745</t>
+          <t>3,740</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ESPN 3 2023-05-21 09:00:00</t>
+          <t>GOLPERU HD 2023-06-02 20:00:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2708</v>
+        <v>39609</v>
       </c>
       <c r="C11" t="n">
-        <v>1027.5</v>
+        <v>38466.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4,906</t>
+          <t>115,976</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESPN HD 2023-05-21 09:50:00</t>
+          <t>GOLPERU HD 2023-06-03 15:00:00</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14919</v>
+        <v>6979</v>
       </c>
       <c r="C12" t="n">
-        <v>12312.31666666667</v>
+        <v>5166.766666666666</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33,791</t>
+          <t>13,203</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ESPN EXTRA HD 2023-05-21 10:50:00</t>
+          <t>GOLPERU HD 2023-06-04 15:30:00</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1817</v>
+        <v>8928</v>
       </c>
       <c r="C13" t="n">
-        <v>609.1166666666667</v>
+        <v>7145.166666666667</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3,210</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ESPN 3 2023-05-21 11:15:00</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5861</v>
-      </c>
-      <c r="C14" t="n">
-        <v>58344.53333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10,707</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ESPN HD 2023-05-21 18:20:00</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6159</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2483.733333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10,841</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GOLPERU HD 2023-05-17 19:30:00</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8116</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2882.933333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14,249</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GOLPERU HD 2023-05-19 20:30:00</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>56678</v>
-      </c>
-      <c r="C17" t="n">
-        <v>174358.5333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>180,032</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GOLPERU HD 2023-05-21 15:00:00</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>12076</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7989.283333333334</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22,638</t>
+          <t>17,841</t>
         </is>
       </c>
     </row>
